--- a/ExamClasseur1.xlsx
+++ b/ExamClasseur1.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\Nouveau dossier (3)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B5A679-3C90-4201-AB0E-135C37165F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9FC5A7-A726-47DF-A5C2-F26609D5B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A3CFCCDF-DFF9-4AA8-9E49-F389AC3DC697}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A3CFCCDF-DFF9-4AA8-9E49-F389AC3DC697}"/>
   </bookViews>
   <sheets>
-    <sheet name="question 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Tables" sheetId="5" r:id="rId2"/>
-    <sheet name="Facture" sheetId="6" r:id="rId3"/>
-    <sheet name="speed graphs" sheetId="7" r:id="rId4"/>
+    <sheet name="Info" sheetId="8" r:id="rId1"/>
+    <sheet name="question 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Tables" sheetId="5" r:id="rId3"/>
+    <sheet name="Facture" sheetId="6" r:id="rId4"/>
+    <sheet name="speed graphs" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>students</t>
   </si>
@@ -149,6 +150,27 @@
   <si>
     <t>Total facture:</t>
   </si>
+  <si>
+    <t>section:</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name:</t>
+  </si>
+  <si>
+    <t>Khadidja</t>
+  </si>
+  <si>
+    <t>OULAD SAID</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Group:</t>
+  </si>
 </sst>
 </file>
 
@@ -156,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;DA&quot;_-;\-* #,##0.00\ &quot;DA&quot;_-;_-* &quot;-&quot;??\ &quot;DA&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -255,7 +277,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -424,13 +446,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -462,6 +574,12 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,12 +601,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
@@ -496,84 +617,6 @@
     <cellStyle name="Pourcentage" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="13" formatCode="0%"/>
-      <border>
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -684,12 +727,70 @@
         <family val="1"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="34" formatCode="_-* #,##0.00\ &quot;DA&quot;_-;\-* #,##0.00\ &quot;DA&quot;_-;_-* &quot;-&quot;??\ &quot;DA&quot;_-;_-@_-"/>
       <border>
         <right style="thin">
           <color theme="1"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -711,6 +812,26 @@
         <right style="thin">
           <color theme="1"/>
         </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$DZD]_-;\-* #,##0.00\ [$DZD]_-;_-* &quot;-&quot;??\ [$DZD]_-;_-@_-"/>
+      <border>
+        <left style="thin">
+          <color theme="1"/>
+        </left>
       </border>
     </dxf>
     <dxf>
@@ -3278,16 +3399,16 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B3CD2ECB-B915-4B7A-A625-9C91C86C0439}" name="Tableau4" displayName="Tableau4" ref="B6:H19" headerRowCount="0" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{A644829B-BA55-4536-9A2C-13F005AD6441}" name="Colonne1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{AD643E33-919B-484A-A0C5-B6B7ABA28E10}" name="Colonne2" dataDxfId="0" dataCellStyle="Monétaire"/>
-    <tableColumn id="3" xr3:uid="{C54DF533-EAE4-4507-8D9D-26F893FCAAAD}" name="Colonne3" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{C1D4510C-E5F6-4488-8AC5-FBEA69ECCA4F}" name="Colonne4" dataDxfId="2" dataCellStyle="Monétaire"/>
-    <tableColumn id="5" xr3:uid="{A51C251A-4988-4ED3-901D-1148D4261C1A}" name="Colonne5" dataDxfId="3" dataCellStyle="Pourcentage">
+    <tableColumn id="2" xr3:uid="{AD643E33-919B-484A-A0C5-B6B7ABA28E10}" name="Colonne2" dataDxfId="10" dataCellStyle="Monétaire"/>
+    <tableColumn id="3" xr3:uid="{C54DF533-EAE4-4507-8D9D-26F893FCAAAD}" name="Colonne3" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{C1D4510C-E5F6-4488-8AC5-FBEA69ECCA4F}" name="Colonne4" dataDxfId="8" dataCellStyle="Monétaire"/>
+    <tableColumn id="5" xr3:uid="{A51C251A-4988-4ED3-901D-1148D4261C1A}" name="Colonne5" dataDxfId="7" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{80A338B2-5E92-4FA0-8B2A-D916CC9480BC}" name="Colonne6" dataDxfId="9" dataCellStyle="Monétaire">
+    <tableColumn id="6" xr3:uid="{80A338B2-5E92-4FA0-8B2A-D916CC9480BC}" name="Colonne6" dataDxfId="6" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{9CF01538-78D9-407D-8282-5D684AF7ED9B}" name="Colonne7" dataDxfId="1" dataCellStyle="Monétaire">
+    <tableColumn id="7" xr3:uid="{9CF01538-78D9-407D-8282-5D684AF7ED9B}" name="Colonne7" dataDxfId="5" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3296,11 +3417,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21A3443-D702-4FBF-B037-721477F6EB68}" name="Tableau5" displayName="Tableau5" ref="B5:D14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E21A3443-D702-4FBF-B037-721477F6EB68}" name="Tableau5" displayName="Tableau5" ref="B5:D14" headerRowCount="0" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9C0F9C43-944E-4F7B-B9F6-65D6D846ADA2}" name="Colonne1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1D2C767C-45AE-454F-A528-9469B662F75A}" name="Colonne2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DD84F000-320D-4A3F-9162-3C61935F33C9}" name="Colonne3" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{9C0F9C43-944E-4F7B-B9F6-65D6D846ADA2}" name="Colonne1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1D2C767C-45AE-454F-A528-9469B662F75A}" name="Colonne2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DD84F000-320D-4A3F-9162-3C61935F33C9}" name="Colonne3" dataDxfId="0">
       <calculatedColumnFormula>Tableau5[[#This Row],[Colonne2]]/Tableau5[[#This Row],[Colonne1]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3604,6 +3725,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E048194C-55E6-46F9-AE0B-4ABB7223B16A}">
+  <dimension ref="B4:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="36">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B7E725-DCAD-4B34-B2E5-A443BE9C9402}">
   <dimension ref="C3:E45"/>
   <sheetViews>
@@ -3619,16 +3791,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -4089,7 +4261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47F36F5-D48F-4192-A007-5290E7AE2E42}">
   <dimension ref="A2:G39"/>
   <sheetViews>
@@ -4553,11 +4725,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94349513-050D-4543-BE6E-0AE50D22A98C}">
   <dimension ref="B5:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -4595,24 +4767,24 @@
       <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <v>120</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="18">
         <v>360</v>
       </c>
       <c r="F6" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.05</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>18</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>342</v>
       </c>
@@ -4621,24 +4793,24 @@
       <c r="B7" s="12">
         <v>2</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <v>56</v>
       </c>
       <c r="D7" s="9">
         <v>5</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="18">
         <v>280</v>
       </c>
       <c r="F7" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.05</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>14</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>266</v>
       </c>
@@ -4647,24 +4819,24 @@
       <c r="B8" s="12">
         <v>3</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <v>70</v>
       </c>
       <c r="D8" s="9">
         <v>2</v>
       </c>
-      <c r="E8" s="25">
+      <c r="E8" s="18">
         <v>140</v>
       </c>
       <c r="F8" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.05</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>7</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>133</v>
       </c>
@@ -4673,24 +4845,24 @@
       <c r="B9" s="12">
         <v>4</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <v>430</v>
       </c>
       <c r="D9" s="9">
         <v>7</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E9" s="18">
         <v>3010</v>
       </c>
       <c r="F9" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>301</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>2709</v>
       </c>
@@ -4699,24 +4871,24 @@
       <c r="B10" s="12">
         <v>5</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <v>230</v>
       </c>
       <c r="D10" s="9">
         <v>23</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="18">
         <v>5290</v>
       </c>
       <c r="F10" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>529</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>4761</v>
       </c>
@@ -4725,24 +4897,24 @@
       <c r="B11" s="12">
         <v>6</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <v>10</v>
       </c>
       <c r="D11" s="9">
         <v>2</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="18">
         <v>20</v>
       </c>
       <c r="F11" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>0</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>20</v>
       </c>
@@ -4751,24 +4923,24 @@
       <c r="B12" s="12">
         <v>7</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <v>5</v>
       </c>
       <c r="D12" s="9">
         <v>8</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="18">
         <v>40</v>
       </c>
       <c r="F12" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>0</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>40</v>
       </c>
@@ -4777,24 +4949,24 @@
       <c r="B13" s="12">
         <v>8</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <v>5040</v>
       </c>
       <c r="D13" s="9">
         <v>1</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="18">
         <v>5040</v>
       </c>
       <c r="F13" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>504</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>4536</v>
       </c>
@@ -4803,24 +4975,24 @@
       <c r="B14" s="12">
         <v>9</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="18">
         <v>1200</v>
       </c>
       <c r="D14" s="9">
         <v>3</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="18">
         <v>3600</v>
       </c>
       <c r="F14" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>360</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>3240</v>
       </c>
@@ -4829,24 +5001,24 @@
       <c r="B15" s="12">
         <v>10</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <v>480</v>
       </c>
       <c r="D15" s="9">
         <v>4</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="18">
         <v>1920</v>
       </c>
       <c r="F15" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>192</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>1728</v>
       </c>
@@ -4855,24 +5027,24 @@
       <c r="B16" s="12">
         <v>11</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <v>33</v>
       </c>
       <c r="D16" s="9">
         <v>5</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>165</v>
       </c>
       <c r="F16" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.05</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>8.25</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>156.75</v>
       </c>
@@ -4881,24 +5053,24 @@
       <c r="B17" s="12">
         <v>12</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="18">
         <v>1200</v>
       </c>
       <c r="D17" s="9">
         <v>2</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="18">
         <v>2400</v>
       </c>
       <c r="F17" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>240</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>2160</v>
       </c>
@@ -4907,24 +5079,24 @@
       <c r="B18" s="12">
         <v>13</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="18">
         <v>15</v>
       </c>
       <c r="D18" s="9">
         <v>10</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="18">
         <v>150</v>
       </c>
       <c r="F18" s="15">
         <f>IF(AND(Tableau4[[#This Row],[Colonne4]]&lt;=999,Tableau4[[#This Row],[Colonne4]]&gt;=100),5%,IF(Tableau4[[#This Row],[Colonne4]]&gt;=1000,10%,0%))</f>
         <v>0.05</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>7.5</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="18">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>142.5</v>
       </c>
@@ -4933,13 +5105,13 @@
       <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="19">
         <v>24</v>
       </c>
       <c r="D19" s="10">
         <v>5</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="19">
         <v>120</v>
       </c>
       <c r="F19" s="16">
@@ -4950,47 +5122,47 @@
         <f>Tableau4[[#This Row],[Colonne4]]*Tableau4[[#This Row],[Colonne5]]</f>
         <v>6</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="19">
         <f>Tableau4[[#This Row],[Colonne4]]-Tableau4[[#This Row],[Colonne6]]</f>
         <v>114</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="27">
+      <c r="G21" s="27"/>
+      <c r="H21" s="20">
         <f>SUM(Tableau4[[#All],[Colonne7]])</f>
         <v>20348.25</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="24">
+      <c r="G22" s="25"/>
+      <c r="H22" s="17">
         <v>0.19</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="28">
+      <c r="G23" s="25"/>
+      <c r="H23" s="21">
         <f>H21*H22</f>
         <v>3866.1675</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="29">
+      <c r="G24" s="29"/>
+      <c r="H24" s="22">
         <f>H21+H23</f>
         <v>24214.4175</v>
       </c>
@@ -5009,7 +5181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB857BC2-56DE-4731-A763-FEA7677C354F}">
   <dimension ref="B4:D14"/>
   <sheetViews>
